--- a/NixieModule_IN-14/SMT/Nixie_Module_IN-14_BOM.xlsx
+++ b/NixieModule_IN-14/SMT/Nixie_Module_IN-14_BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtakao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minori Takao\Dropbox\Dev\KiCad\NixieModule\NixieModule_IN-14\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F24E66-6616-4B9D-A66F-32ABC085D9F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8055"/>
+    <workbookView xWindow="2760" yWindow="672" windowWidth="23292" windowHeight="18144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kicad_BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Value</t>
   </si>
@@ -42,9 +43,6 @@
     <t>10k</t>
   </si>
   <si>
-    <t>15k</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -68,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>47uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R12, R3, R5, R7, R9, R11, R4, R6, R8, R10, R2, R17, R16, R18, R19, R15, R14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,13 +83,33 @@
   </si>
   <si>
     <t>Parts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.7uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>47k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SK6812MINI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MMBTA42LT1G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCA9685PW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,6 +263,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -284,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,121 +507,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
